--- a/docs/CodeSystem-BRFabricantePNI.xlsx
+++ b/docs/CodeSystem-BRFabricantePNI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="309">
   <si>
     <t>Property</t>
   </si>
@@ -189,7 +189,7 @@
     <t>BUTANTAN</t>
   </si>
   <si>
-    <t>FUNDACAO BUTANTAN</t>
+    <t>INSTITUTO BUTANTAN</t>
   </si>
   <si>
     <t>153</t>
@@ -366,10 +366,10 @@
     <t>2263</t>
   </si>
   <si>
-    <t>WYETH</t>
-  </si>
-  <si>
-    <t>WYETH PHARMACEUTICALS</t>
+    <t>WYETH-LTDA</t>
+  </si>
+  <si>
+    <t>WYETH INDUSTRIA FARMACEUTICA LTDA</t>
   </si>
   <si>
     <t>2355</t>
@@ -552,7 +552,7 @@
     <t>KAMADA</t>
   </si>
   <si>
-    <t>KAMADA PHARMACEUTICAL</t>
+    <t>KAMADA LTD.</t>
   </si>
   <si>
     <t>28251</t>
@@ -579,7 +579,7 @@
     <t>PFIZER-BELGICA</t>
   </si>
   <si>
-    <t>PFIZER MANUFACTURING BELGIUM NV - BELGIVA</t>
+    <t>PFIZER MANUFACTURING BELGIUM NV - BELGICA</t>
   </si>
   <si>
     <t>28303</t>
@@ -895,6 +895,51 @@
   </si>
   <si>
     <t>KI BIOPHARMA LLC LIMITED.</t>
+  </si>
+  <si>
+    <t>44618</t>
+  </si>
+  <si>
+    <t>BIONTECH</t>
+  </si>
+  <si>
+    <t>BIONTECH MANUFACTURING GMBH</t>
+  </si>
+  <si>
+    <t>44779</t>
+  </si>
+  <si>
+    <t>MIBE</t>
+  </si>
+  <si>
+    <t>MIBE GMBH ARZNEIMITTEL BRECHNA</t>
+  </si>
+  <si>
+    <t>44805</t>
+  </si>
+  <si>
+    <t>BEIJING</t>
+  </si>
+  <si>
+    <t>BEIJING INSTITUTE OF BIOLOGICAL PRODUCTS CO., LTD.</t>
+  </si>
+  <si>
+    <t>44781</t>
+  </si>
+  <si>
+    <t>JUBILANT</t>
+  </si>
+  <si>
+    <t>JUBILANT HOLLISTERSTIER LLC</t>
+  </si>
+  <si>
+    <t>45086</t>
+  </si>
+  <si>
+    <t>PFIZER-IRLANDA</t>
+  </si>
+  <si>
+    <t>PFIZER IRELAND PHARMACEUTICALS</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2429,6 +2474,76 @@
         <v>293</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
